--- a/data/output/disaproved_courses.xlsx
+++ b/data/output/disaproved_courses.xlsx
@@ -25,109 +25,109 @@
     <t>course_name</t>
   </si>
   <si>
+    <t>908eb7a8-519f-4f9b-bff6-c50662308cda</t>
+  </si>
+  <si>
     <t>e216eb58-898c-475d-9017-fc1f1e284d85</t>
   </si>
   <si>
-    <t>908eb7a8-519f-4f9b-bff6-c50662308cda</t>
-  </si>
-  <si>
     <t>53b97b9e-3194-4cb5-9aa9-c08af9b07baa</t>
   </si>
   <si>
+    <t>ad4f2ef9-4e68-48b7-b610-36c4fb9091eb</t>
+  </si>
+  <si>
     <t>bd47e6ed-ce09-4c16-ac56-35269ea40fdc</t>
   </si>
   <si>
-    <t>ad4f2ef9-4e68-48b7-b610-36c4fb9091eb</t>
+    <t>a774382f-d25f-40c7-8e23-df43fcdc35e6</t>
+  </si>
+  <si>
+    <t>02dba1b0-0745-4067-acb4-7dd81ecd7e25</t>
+  </si>
+  <si>
+    <t>b93b6acb-2c5d-4aea-a085-79cae87f4093</t>
+  </si>
+  <si>
+    <t>50664a5b-d874-4f2d-b5d2-0009c175b95c</t>
+  </si>
+  <si>
+    <t>cb84e191-378f-43eb-a647-eb72eb5c7574</t>
+  </si>
+  <si>
+    <t>628182e5-bd4c-460a-9284-58253f82a0b3</t>
+  </si>
+  <si>
+    <t>539a30ae-5e98-4691-aeac-b013821ef4f0</t>
   </si>
   <si>
     <t>39d6a463-19cd-4d72-9472-a195055f385b</t>
   </si>
   <si>
-    <t>50664a5b-d874-4f2d-b5d2-0009c175b95c</t>
-  </si>
-  <si>
-    <t>539a30ae-5e98-4691-aeac-b013821ef4f0</t>
-  </si>
-  <si>
-    <t>a774382f-d25f-40c7-8e23-df43fcdc35e6</t>
-  </si>
-  <si>
-    <t>02dba1b0-0745-4067-acb4-7dd81ecd7e25</t>
-  </si>
-  <si>
-    <t>628182e5-bd4c-460a-9284-58253f82a0b3</t>
-  </si>
-  <si>
-    <t>cb84e191-378f-43eb-a647-eb72eb5c7574</t>
-  </si>
-  <si>
-    <t>b93b6acb-2c5d-4aea-a085-79cae87f4093</t>
-  </si>
-  <si>
     <t>cc7423de-444e-4a6c-8bbc-70c50818ad24</t>
   </si>
   <si>
+    <t>f9a07b86-f66c-461d-b919-cc7a48f41402</t>
+  </si>
+  <si>
     <t>a2d8a260-051f-455a-a8bd-7a4a36098ff6</t>
   </si>
   <si>
     <t>87378ad3-cee8-428e-a903-b71304f6062d</t>
   </si>
   <si>
-    <t>f9a07b86-f66c-461d-b919-cc7a48f41402</t>
-  </si>
-  <si>
     <t>6e241b74-3631-4239-9ac4-3e35896c76b9</t>
   </si>
   <si>
+    <t>Optional solution-oriented support</t>
+  </si>
+  <si>
     <t>Proactive foreground firmware</t>
   </si>
   <si>
-    <t>Optional solution-oriented support</t>
-  </si>
-  <si>
     <t>Customizable value-added contingency</t>
   </si>
   <si>
+    <t>Ergonomic context-sensitive approach</t>
+  </si>
+  <si>
     <t>Synergistic dynamic capability</t>
   </si>
   <si>
-    <t>Ergonomic context-sensitive approach</t>
+    <t>Balanced modular neural-net</t>
+  </si>
+  <si>
+    <t>Seamless systemic collaboration</t>
+  </si>
+  <si>
+    <t>Public-key multimedia analyzer</t>
+  </si>
+  <si>
+    <t>Profit-focused scalable success</t>
+  </si>
+  <si>
+    <t>Horizontal multi-tasking productivity</t>
+  </si>
+  <si>
+    <t>Visionary value-added framework</t>
+  </si>
+  <si>
+    <t>Enterprise-wide client-driven implementation</t>
   </si>
   <si>
     <t>Total local success</t>
   </si>
   <si>
-    <t>Profit-focused scalable success</t>
-  </si>
-  <si>
-    <t>Enterprise-wide client-driven implementation</t>
-  </si>
-  <si>
-    <t>Balanced modular neural-net</t>
-  </si>
-  <si>
-    <t>Seamless systemic collaboration</t>
-  </si>
-  <si>
-    <t>Visionary value-added framework</t>
-  </si>
-  <si>
-    <t>Horizontal multi-tasking productivity</t>
-  </si>
-  <si>
-    <t>Public-key multimedia analyzer</t>
-  </si>
-  <si>
     <t>Synchronized real-time architecture</t>
   </si>
   <si>
+    <t>Organized bifurcated Graphical User Interface</t>
+  </si>
+  <si>
     <t>Up-sized homogeneous moderator</t>
   </si>
   <si>
     <t>De-engineered cohesive core</t>
-  </si>
-  <si>
-    <t>Organized bifurcated Graphical User Interface</t>
   </si>
   <si>
     <t>Innovative actuating task-force</t>
